--- a/biology/Médecine/Classe_ATC_H03/Classe_ATC_H03.xlsx
+++ b/biology/Médecine/Classe_ATC_H03/Classe_ATC_H03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une section du code ATC :
 H Hormones systémiques, hormones sexuelles exclues
-H03 Médicaments de la thyroïde[1].
+H03 Médicaments de la thyroïde.
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>H03AA Hormones thyroïdiennes
-H03AA01 Lévothyroxine sodique
+          <t>H03AA Hormones thyroïdiennes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>H03AA01 Lévothyroxine sodique
 H03AA02 Liothyronine sodique
 H03AA03 Associations de lévothyroxine et liothyronine
 H03AA04 Tiratricol (en)
@@ -550,19 +567,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>H03BA Thiouraciles
-H03BA01 Méthylthiouracile (en)
+          <t>H03BA Thiouraciles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>H03BA01 Méthylthiouracile (en)
 H03BA02 Propylthiouracile
-H03BA03 Benzylthiouracile (en)
-H03BB Dérivés imidazolés soufrés
-H03BB01 Carbimazole
-H03BB02 Thiamazole
-H03BB52 Thiamazole, associations
-H03BC Perchlorates
-H03BC01 Potassium perchlorate
-H03BX Autres antithyroïdiens
-H03BX01 Di-iodotyrosine
-H03BX02 Dibromotyrosine (en)</t>
+H03BA03 Benzylthiouracile (en)</t>
         </is>
       </c>
     </row>
@@ -587,13 +600,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>H03B Antithyroïdiens</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H03BB Dérivés imidazolés soufrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>H03BB01 Carbimazole
+H03BB02 Thiamazole
+H03BB52 Thiamazole, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>H03B Antithyroïdiens</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H03BC Perchlorates</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>H03BC01 Potassium perchlorate</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>H03B Antithyroïdiens</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H03BX Autres antithyroïdiens</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>H03BX01 Di-iodotyrosine
+H03BX02 Dibromotyrosine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>H03C Médicaments iodés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>H03CA Médicaments iodés
-Classe vide.</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>H03CA Médicaments iodés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
         </is>
       </c>
     </row>
